--- a/Broodstock_survival_20181112-20190221.xlsx
+++ b/Broodstock_survival_20181112-20190221.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/P_generosa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACDD3F2-6336-A646-93D1-388BF08D146F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B4EE8C-9837-BE4B-BFEA-78C2717DB29E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33960" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{01F1A396-36CA-C649-98EC-A8EA62AB1979}"/>
+    <workbookView xWindow="33760" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{01F1A396-36CA-C649-98EC-A8EA62AB1979}"/>
   </bookViews>
   <sheets>
     <sheet name="Tanks1-4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Tanks1-4'!$A$19:$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Tanks1-4'!$C$19:$C$22</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Tanks1-4'!$D$11:$D$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Tanks1-4'!$D$19:$D$22</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Tanks1-4'!$A$19:$A$22</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Tanks1-4'!$C$19:$C$22</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Tanks1-4'!$D$19:$D$22</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Tanks1-4'!#REF!</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Tanks1-4'!$A$11:$A$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Tanks1-4'!$C$11:$C$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Tanks1-4'!$D$10</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>TANK</t>
   </si>
@@ -107,6 +94,30 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>1_v_2</t>
+  </si>
+  <si>
+    <t>1_v_3</t>
+  </si>
+  <si>
+    <t>1_v_4</t>
+  </si>
+  <si>
+    <t>2_v_3</t>
+  </si>
+  <si>
+    <t>2_v_4</t>
+  </si>
+  <si>
+    <t>3_v_4</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>ChiSq test (prop.test)</t>
   </si>
 </sst>
 </file>
@@ -7596,10 +7607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDED545C-5189-2844-8325-955D2D1482E2}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8056,6 +8067,62 @@
         <v>0.3367175148507307</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3.6470000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2.8289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5.7650000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4.0889999999999998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F1:F194">
     <sortCondition ref="F1:F194"/>
